--- a/Data/g13.6.xlsx
+++ b/Data/g13.6.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,20 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -441,20 +365,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Variável</t>
+          <t>Trimestre</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Classe</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -468,21 +387,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>6.9</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -493,21 +407,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.3</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>11.7</v>
       </c>
     </row>
     <row r="4">
@@ -518,21 +427,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>6.6</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>12.8</v>
       </c>
     </row>
     <row r="5">
@@ -543,21 +447,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.1</v>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>12.1</v>
       </c>
     </row>
     <row r="6">
@@ -568,21 +467,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12.2</v>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>11.9</v>
       </c>
     </row>
     <row r="7">
@@ -593,21 +487,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>11.9</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>11.1</v>
       </c>
     </row>
     <row r="8">
@@ -618,21 +507,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>11.7</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>12.4</v>
       </c>
     </row>
     <row r="9">
@@ -643,21 +527,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>11.1</v>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>13.6</v>
       </c>
     </row>
     <row r="10">
@@ -668,21 +547,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>14.2</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>14.9</v>
       </c>
     </row>
     <row r="11">
@@ -693,21 +567,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>11.1</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>14.2</v>
       </c>
     </row>
     <row r="12">
@@ -718,271 +587,216 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>7.9</v>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>14.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>9.4</v>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>14.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>8</v>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>12.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>8.300000000000001</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>11.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>10.6</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>11.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>14.5</v>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>14</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>14.5</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>7.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>13.8</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>7.7</v>
       </c>
     </row>
     <row r="23">
@@ -993,299 +807,791 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>10.9</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>14.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>9.699999999999999</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>14.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2013-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>8.800000000000001</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>15.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>9</v>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>14.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2015-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>10.1</v>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>14.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2016-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>15.2</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>13.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2017-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>13.6</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>15.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2018-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>15.2</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>15</v>
+          <t>01/07/2020</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
+          <t>01/10/2020</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
+          <t>01/01/2021</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
+          <t>01/04/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D61">
         <v>11.9</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/g13.6.xlsx
+++ b/Data/g13.6.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,20 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -441,10 +365,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Trimestre</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -458,11 +387,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6.9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>11.7</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +407,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6.3</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>12.8</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +427,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6.6</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>12.1</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +447,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9.1</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>11.9</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +467,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12.2</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>11.1</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +487,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11.9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>12.4</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +507,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>11.7</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>13.6</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +527,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>11.1</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>14.9</v>
       </c>
     </row>
     <row r="10">
@@ -578,10 +547,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D10">
         <v>14.2</v>
       </c>
     </row>
@@ -593,11 +567,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>11.1</v>
+      <c r="D11">
+        <v>14.9</v>
       </c>
     </row>
     <row r="12">
@@ -608,161 +587,216 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>7.9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>14.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>9.4</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>12.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>11.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>8.300000000000001</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>11.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>10.6</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>14.5</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>14</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>7.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>14.5</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>13.8</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>7.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>7.4</v>
       </c>
     </row>
     <row r="23">
@@ -773,179 +807,791 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>10.9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>14.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>9.699999999999999</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>15.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>8.800000000000001</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>14.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>14.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>10.1</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>13.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>15.2</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>15.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>13.6</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>15.2</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>15</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="C34" t="n">
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D60">
         <v>11.9</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>11.2</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/g13.6.xlsx
+++ b/Data/g13.6.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D2">
-        <v>11.7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D3">
-        <v>12.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D4">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D5">
-        <v>11.9</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D6">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D7">
-        <v>12.4</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D8">
-        <v>13.6</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D9">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D10">
-        <v>14.2</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D11">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D12">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D13">
-        <v>12.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="14">
@@ -632,7 +632,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D14">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>11.1</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D16">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D17">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>7.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D21">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D22">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D23">
-        <v>14.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D24">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D25">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D26">
-        <v>14.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D27">
-        <v>13.8</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,8 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>15.8</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -932,7 +929,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -949,7 +946,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
     </row>
@@ -966,7 +963,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
     </row>
@@ -983,7 +980,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
     </row>
@@ -1000,7 +997,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1014,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1031,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1051,8 +1048,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>12.7</v>
       </c>
     </row>
     <row r="37">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>12.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="39">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>10.9</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="40">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>12.2</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="41">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="42">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="43">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="44">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D44">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="45">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="46">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D46">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="47">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D47">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="49">
@@ -1308,11 +1308,8 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>15.8</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1328,7 +1325,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1342,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1359,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1376,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1393,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1410,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1427,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1447,8 +1444,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>12.7</v>
       </c>
     </row>
     <row r="58">
@@ -1464,11 +1464,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="59">
@@ -1484,11 +1484,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="60">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D60">
@@ -1524,11 +1524,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="62">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -1564,11 +1564,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>9.800000000000001</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="64">
@@ -1584,11 +1584,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D64">
-        <v>11.2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g13.6.xlsx
+++ b/Data/g13.6.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D2">
-        <v>12.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D3">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D4">
-        <v>11.9</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D5">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D6">
-        <v>12.4</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D7">
-        <v>13.6</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D8">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D9">
-        <v>14.2</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D10">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D11">
-        <v>14.2</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D12">
-        <v>12.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="13">
@@ -612,7 +612,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D13">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D14">
-        <v>11.1</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D16">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D17">
-        <v>7.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D21">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D22">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D23">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D24">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D25">
-        <v>14.6</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D26">
-        <v>13.8</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,8 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>15.8</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -912,7 +909,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -929,7 +926,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
     </row>
@@ -946,7 +943,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
     </row>
@@ -963,7 +960,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
     </row>
@@ -980,7 +977,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
     </row>
@@ -997,7 +994,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1011,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1031,8 +1028,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>12.7</v>
       </c>
     </row>
     <row r="36">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>12.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="38">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>10.9</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="39">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>12.2</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="40">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="41">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="42">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D42">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="43">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>11.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="44">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D44">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="45">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D45">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="46">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D46">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="48">
@@ -1288,11 +1288,8 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>15.8</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1308,7 +1305,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1322,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1339,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1356,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2021</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1373,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1390,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1407,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1427,8 +1424,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>12.7</v>
       </c>
     </row>
     <row r="57">
@@ -1444,11 +1444,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D57">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="58">
@@ -1464,11 +1464,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="59">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D59">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="61">
@@ -1524,11 +1524,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>9.800000000000001</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="63">
@@ -1564,11 +1564,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D63">
-        <v>11.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -1584,11 +1584,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g13.6.xlsx
+++ b/Data/g13.6.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,20 +350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -441,10 +365,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ano</t>
+          <t>Variável</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Trimestre</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
@@ -458,11 +387,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6.9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>11.9</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +407,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6.3</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>11.1</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +427,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6.6</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>12.4</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +447,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9.1</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>13.6</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +467,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12.2</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>14.9</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +487,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11.9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>14.2</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +507,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>11.7</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>14.9</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +527,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>11.1</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>14.2</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +547,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>14.2</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>12.6</v>
       </c>
     </row>
     <row r="11">
@@ -593,10 +567,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D11">
         <v>11.1</v>
       </c>
     </row>
@@ -608,11 +587,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>7.9</v>
+      <c r="D12">
+        <v>11.1</v>
       </c>
     </row>
     <row r="13">
@@ -623,146 +607,196 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>7.4</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>9.4</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>7.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>8.300000000000001</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>10.6</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>14.5</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>7.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>14</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>7.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>14.5</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>7.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>13.8</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>6.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>6.4</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +807,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>14.6</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +827,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>10.9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>13.8</v>
       </c>
     </row>
     <row r="25">
@@ -803,194 +847,751 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>10.4</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>15.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>9.699999999999999</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>8.800000000000001</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>10.1</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>15.2</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>13.6</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>15.2</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>15</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>12.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>11.9</v>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>10.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="D37">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D61">
         <v>11.2</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>8.4</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/g13.6.xlsx
+++ b/Data/g13.6.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -392,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>11.9</v>
+          <t>01/10/2012</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>11.1</v>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>12.4</v>
+          <t>01/10/2014</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>13.6</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9.1</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +548,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>14.9</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>12.2</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>14.2</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11.9</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>14.9</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11.7</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>14.2</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>11.1</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>12.6</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>14.2</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +651,7 @@
           <t>01/10/2021</t>
         </is>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>11.1</v>
       </c>
     </row>
@@ -592,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>11.1</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="13">
@@ -612,17 +688,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>9.300000000000001</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -632,17 +708,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>8.699999999999999</v>
+          <t>01/10/2012</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>9.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -652,17 +728,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>7.9</v>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -672,17 +748,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>8.800000000000001</v>
+          <t>01/10/2014</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -692,17 +768,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>8</v>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -712,17 +788,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>7.7</v>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -732,17 +808,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>7.4</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -752,17 +828,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>7.9</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -772,17 +848,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>6.9</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -792,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>6.4</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>14.6</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>13.8</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10.9</v>
       </c>
     </row>
     <row r="25">
@@ -852,17 +928,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>15.8</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -872,14 +948,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
-        </is>
+          <t>01/10/2012</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -889,14 +968,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/10/2013</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -906,14 +988,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
-        </is>
+          <t>01/10/2014</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -923,14 +1008,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
+          <t>01/10/2015</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -940,14 +1028,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
-        </is>
+          <t>01/10/2016</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -957,14 +1048,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
-        </is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -974,14 +1068,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -991,14 +1088,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1008,17 +1108,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>12.7</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1028,17 +1128,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>12</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1051,14 +1151,14 @@
           <t>01/10/2022</t>
         </is>
       </c>
-      <c r="D36">
-        <v>10.9</v>
+      <c r="D36" t="n">
+        <v>11.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1068,530 +1168,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>01/04/2023</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>01/10/2023</t>
         </is>
       </c>
-      <c r="D40">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>01/04/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>01/10/2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>01/04/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>01/07/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>01/01/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>01/04/2022</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D58">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>01/04/2023</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="D61">
+      <c r="D37" t="n">
         <v>11.2</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>8.4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/g13.6.xlsx
+++ b/Data/g13.6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,7 +698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="23">
@@ -888,7 +888,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -928,17 +928,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -948,17 +948,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13.6</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="32">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,71 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>01/10/2023</t>
         </is>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>11.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Taxa de desocupação, na semana de referência, das pessoas de 14 anos ou mais de idade</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g13.6.xlsx
+++ b/Data/g13.6.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="7">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="31">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="34">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="36">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="40">
